--- a/Employee_Reports35/Rolly Miano Valdez Q0611.xlsx
+++ b/Employee_Reports35/Rolly Miano Valdez Q0611.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1201,11 +1201,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1250,11 +1250,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1287,11 +1287,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1336,11 +1336,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1385,11 +1385,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1422,11 +1422,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1520,11 +1520,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">

--- a/Employee_Reports35/Rolly Miano Valdez Q0611.xlsx
+++ b/Employee_Reports35/Rolly Miano Valdez Q0611.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -955,11 +955,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1004,11 +1004,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1102,11 +1102,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1151,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1201,11 +1201,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1250,11 +1250,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1287,11 +1287,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1336,11 +1336,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1385,11 +1385,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1422,11 +1422,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1471,11 +1471,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1520,11 +1520,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,7 +1557,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -1668,21 +1668,52 @@
       <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr"/>
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Consignment Shuttle Tv</t>
+        </is>
+      </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
+          <t>29-Oct-2025</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>81.13%</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Approved Score. date is valid</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>78.63%</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3" t="inlineStr"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>79.46%</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
